--- a/runtime/assets/translations/translation.xlsx
+++ b/runtime/assets/translations/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\UndertaleMakerX\runtime\assets\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF73296-E3A7-4C9E-8590-9CCFD18843F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8528FE-FC65-4AD9-A7F8-B4A2F113C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2195116D-5354-4939-ADCE-5E540C5EF5CE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>keys</t>
   </si>
@@ -174,6 +174,12 @@
   <si>
     <t>Try to load javascript module failed.</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot play sound: no valid audio file found</t>
+  </si>
+  <si>
+    <t>无法播放声音：找不到有效的音频文件</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED30728-7971-42AF-94CE-3251EB2E6C2D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1341,6 +1347,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/runtime/assets/translations/translation.xlsx
+++ b/runtime/assets/translations/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\UndertaleMakerX\runtime\assets\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8528FE-FC65-4AD9-A7F8-B4A2F113C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82436D2-14E8-4A9F-88C0-C0984D10EE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2195116D-5354-4939-ADCE-5E540C5EF5CE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>keys</t>
   </si>
@@ -85,9 +85,6 @@
     <t>缺少公共的构造器</t>
   </si>
   <si>
-    <t>The registered type name cannot be empty</t>
-  </si>
-  <si>
     <t>注册的类型名称不能为空</t>
   </si>
   <si>
@@ -137,14 +134,6 @@
     <t>请检查该对象是否已完成注册</t>
   </si>
   <si>
-    <t>Failed to switch scene: Invalid scene path.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换场景失败: 无效的场景路径</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -176,10 +165,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Cannot play sound: no valid audio file found</t>
-  </si>
-  <si>
-    <t>无法播放声音：找不到有效的音频文件</t>
+    <t>找不到资源文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource file not found</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot play sound</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法播放声音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to switch scene: Invalid scene resource.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景失败: 无效的场景资源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The registered type name cannot be empty.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to execute class member method</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类成员方法失败</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method name cannot be empty</t>
+  </si>
+  <si>
+    <t>方法名称不能为空</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1151,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED30728-7971-42AF-94CE-3251EB2E6C2D}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1168,15 +1194,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,18 +1223,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,82 +1303,106 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/assets/translations/translation.xlsx
+++ b/runtime/assets/translations/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\UndertaleMakerX\runtime\assets\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82436D2-14E8-4A9F-88C0-C0984D10EE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB626E-276E-4698-A036-4E8705A72F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2195116D-5354-4939-ADCE-5E540C5EF5CE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>keys</t>
   </si>
@@ -206,6 +206,34 @@
   <si>
     <t>方法名称不能为空</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot add singleton, singleton already exists:</t>
+  </si>
+  <si>
+    <t>无法添加单例，单例已存在：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot add singleton, singleton name is invalid:</t>
+  </si>
+  <si>
+    <t>无法添加单例，单例名称无效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to add singleton, singleton object is invalid</t>
+  </si>
+  <si>
+    <t>无法添加单例，单例对象无效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持的参数类型：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsupported parameter type:</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED30728-7971-42AF-94CE-3251EB2E6C2D}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1405,6 +1433,38 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
